--- a/Jogos_do_Dia/2023-11-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="L2" t="n">
-        <v>3.45</v>
+        <v>4.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -754,13 +754,13 @@
         <v>3.25</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -769,34 +769,34 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
@@ -808,134 +808,134 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Liverpool FC Montevideo</t>
+          <t>Racing Club de Ferrol</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK3" t="n">
         <v>2.15</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="AL3" t="n">
         <v>2.05</v>
       </c>
-      <c r="W3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AC3" t="n">
+      <c r="AM3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
@@ -947,128 +947,128 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Racing Club de Ferrol</t>
+          <t>Liverpool FC Montevideo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V4" t="n">
         <v>2.05</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y4" t="n">
         <v>2.1</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.65</v>
-      </c>
       <c r="Z4" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.43</v>
+        <v>1.81</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.68</v>
+        <v>3.01</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.16</v>
+        <v>2.7</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AI4" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.15</v>
+        <v>2.84</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.75</v>
+        <v>2.03</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.9</v>
+        <v>2.64</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -1180,10 +1180,10 @@
         <v>2.02</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ5" t="n">
         <v>1.26</v>
@@ -1247,13 +1247,13 @@
         <v>3.38</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="L6" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.44</v>
@@ -1274,10 +1274,10 @@
         <v>2.93</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U6" t="n">
         <v>1.81</v>
@@ -1310,31 +1310,31 @@
         <v>2.63</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AN6" t="n">
         <v>1.8</v>
@@ -1343,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
@@ -1386,13 +1386,13 @@
         <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>4.06</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.2</v>
@@ -1413,10 +1413,10 @@
         <v>5.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="U7" t="n">
         <v>1.47</v>
@@ -1449,13 +1449,13 @@
         <v>2.76</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1464,28 +1464,28 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="L8" t="n">
-        <v>4.61</v>
+        <v>11</v>
       </c>
       <c r="M8" t="n">
         <v>1.16</v>
@@ -1552,10 +1552,10 @@
         <v>6.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
         <v>1.64</v>
@@ -1588,43 +1588,43 @@
         <v>2.97</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>5.34</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.22</v>
@@ -1691,10 +1691,10 @@
         <v>4.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="T9" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
         <v>1.43</v>
@@ -1727,43 +1727,43 @@
         <v>2.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="M10" t="n">
         <v>1.29</v>
@@ -1830,10 +1830,10 @@
         <v>4.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
@@ -1866,43 +1866,43 @@
         <v>2.47</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11">
@@ -1942,13 +1942,13 @@
         <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="K11" t="n">
-        <v>2.95</v>
+        <v>3.27</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.44</v>
@@ -1969,10 +1969,10 @@
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U11" t="n">
         <v>1.91</v>
@@ -2081,13 +2081,13 @@
         <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.95</v>
+        <v>2.78</v>
       </c>
       <c r="K12" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="L12" t="n">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="M12" t="n">
         <v>1.6</v>
@@ -2102,16 +2102,16 @@
         <v>6.05</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T12" t="n">
         <v>1.52</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.44</v>
       </c>
       <c r="U12" t="n">
         <v>2.2</v>
@@ -2220,13 +2220,13 @@
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="L13" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="M13" t="n">
         <v>1.4</v>
@@ -2247,10 +2247,10 @@
         <v>3.25</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2283,25 +2283,25 @@
         <v>2.58</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL13" t="n">
         <v>1.93</v>
@@ -2310,16 +2310,16 @@
         <v>1.88</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="14">
@@ -2498,13 +2498,13 @@
         <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L15" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.44</v>
@@ -2525,10 +2525,10 @@
         <v>2.95</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
         <v>1.83</v>
@@ -2637,13 +2637,13 @@
         <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.45</v>
+        <v>2.67</v>
       </c>
       <c r="K16" t="n">
-        <v>3.05</v>
+        <v>3.27</v>
       </c>
       <c r="L16" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="M16" t="n">
         <v>1.44</v>
@@ -2664,10 +2664,10 @@
         <v>3.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="U16" t="n">
         <v>1.8</v>
@@ -2776,13 +2776,13 @@
         <v>8.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="K17" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="L17" t="n">
-        <v>8.6</v>
+        <v>9.51</v>
       </c>
       <c r="M17" t="n">
         <v>1.44</v>
@@ -2803,10 +2803,10 @@
         <v>3.25</v>
       </c>
       <c r="S17" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="U17" t="n">
         <v>2.75</v>
@@ -2915,13 +2915,13 @@
         <v>2.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="L18" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="M18" t="n">
         <v>1.44</v>
@@ -2945,7 +2945,7 @@
         <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
         <v>1.85</v>
@@ -3054,13 +3054,13 @@
         <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="K19" t="n">
-        <v>3.15</v>
+        <v>3.24</v>
       </c>
       <c r="L19" t="n">
-        <v>3.35</v>
+        <v>3.91</v>
       </c>
       <c r="M19" t="n">
         <v>1.5</v>
@@ -3081,10 +3081,10 @@
         <v>2.8</v>
       </c>
       <c r="S19" t="n">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="T19" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3193,13 +3193,13 @@
         <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="K20" t="n">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.41</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
         <v>1.4</v>
@@ -3220,10 +3220,10 @@
         <v>3.4</v>
       </c>
       <c r="S20" t="n">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="T20" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="n">
         <v>1.8</v>
@@ -3250,10 +3250,10 @@
         <v>1.48</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.71</v>
+        <v>2.76</v>
       </c>
       <c r="AE20" t="n">
         <v>1.71</v>
@@ -3293,6 +3293,145 @@
       </c>
       <c r="AQ20" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45249</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>11</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-19_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-19_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4.33</v>
       </c>
       <c r="J2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.4</v>
@@ -718,10 +718,10 @@
         <v>3.25</v>
       </c>
       <c r="S2" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -739,10 +739,10 @@
         <v>1.8</v>
       </c>
       <c r="Z2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA2" t="n">
         <v>2</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.75</v>
       </c>
       <c r="AB2" t="n">
         <v>1.74</v>
@@ -830,13 +830,13 @@
         <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>4.03</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.53</v>
@@ -857,10 +857,10 @@
         <v>2.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>2.1</v>
@@ -878,10 +878,10 @@
         <v>1.65</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AB3" t="n">
         <v>1.43</v>
@@ -969,13 +969,13 @@
         <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="K4" t="n">
-        <v>4.02</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>4.23</v>
+        <v>4.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.33</v>
@@ -996,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
         <v>1.7</v>
@@ -1017,10 +1017,10 @@
         <v>2.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AB4" t="n">
         <v>1.81</v>
@@ -1247,13 +1247,13 @@
         <v>3.38</v>
       </c>
       <c r="J6" t="n">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="n">
-        <v>3.08</v>
+        <v>4.22</v>
       </c>
       <c r="L6" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.44</v>
@@ -1274,10 +1274,10 @@
         <v>2.93</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
         <v>1.81</v>
@@ -1386,13 +1386,13 @@
         <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.2</v>
@@ -1413,10 +1413,10 @@
         <v>5.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="T7" t="n">
-        <v>2.55</v>
+        <v>2.69</v>
       </c>
       <c r="U7" t="n">
         <v>1.47</v>
@@ -1525,13 +1525,13 @@
         <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="K8" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="L8" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.16</v>
@@ -1552,10 +1552,10 @@
         <v>6.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T8" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="U8" t="n">
         <v>1.64</v>
@@ -1667,10 +1667,10 @@
         <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.22</v>
@@ -1691,10 +1691,10 @@
         <v>4.9</v>
       </c>
       <c r="S9" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="U9" t="n">
         <v>1.43</v>
@@ -1806,10 +1806,10 @@
         <v>1.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.29</v>
@@ -1830,10 +1830,10 @@
         <v>4.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="U10" t="n">
         <v>1.53</v>
@@ -1924,94 +1924,94 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CD Eldense</t>
+          <t>Real Oviedo</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mirandés</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="H11" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.04</v>
+        <v>4.72</v>
       </c>
       <c r="K11" t="n">
-        <v>3.27</v>
+        <v>3.44</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="M11" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="N11" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="O11" t="n">
         <v>1.08</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>6.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="S11" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AE11" t="n">
         <v>2</v>
       </c>
-      <c r="T11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>3.02</v>
+        <v>2.1</v>
       </c>
       <c r="AH11" t="n">
         <v>1.32</v>
@@ -2038,7 +2038,7 @@
         <v>1.37</v>
       </c>
       <c r="AP11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.2</v>
@@ -2063,94 +2063,94 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Real Oviedo</t>
+          <t>CD Eldense</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>Mirandés</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="J12" t="n">
-        <v>2.78</v>
+        <v>1.39</v>
       </c>
       <c r="K12" t="n">
-        <v>2.98</v>
+        <v>6.06</v>
       </c>
       <c r="L12" t="n">
-        <v>2.54</v>
+        <v>4.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="N12" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="O12" t="n">
         <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>6.05</v>
+        <v>8</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="R12" t="n">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="T12" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="X12" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.63</v>
+        <v>1.14</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.63</v>
+        <v>2.36</v>
       </c>
       <c r="AE12" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.1</v>
+        <v>3.02</v>
       </c>
       <c r="AH12" t="n">
         <v>1.32</v>
@@ -2177,7 +2177,7 @@
         <v>1.37</v>
       </c>
       <c r="AP12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.2</v>
@@ -2220,13 +2220,13 @@
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K13" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>3.52</v>
+        <v>3.2</v>
       </c>
       <c r="M13" t="n">
         <v>1.4</v>
@@ -2247,10 +2247,10 @@
         <v>3.25</v>
       </c>
       <c r="S13" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="S14" t="n">
         <v>1.53</v>
@@ -2398,13 +2398,13 @@
         <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Z14" t="n">
         <v>0.83</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -2480,31 +2480,31 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Cartagena</t>
+          <t>Villarreal II</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Albacete Balompié</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.84</v>
+        <v>4.96</v>
       </c>
       <c r="K15" t="n">
-        <v>2.96</v>
+        <v>3.59</v>
       </c>
       <c r="L15" t="n">
-        <v>2.5</v>
+        <v>1.59</v>
       </c>
       <c r="M15" t="n">
         <v>1.44</v>
@@ -2513,91 +2513,91 @@
         <v>2.63</v>
       </c>
       <c r="O15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="R15" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="S15" t="n">
-        <v>2.25</v>
+        <v>1.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.34</v>
+        <v>1.72</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.76</v>
+        <v>3.19</v>
       </c>
       <c r="AE15" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="AF15" t="n">
         <v>7.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AI15" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AP15" t="n">
-        <v>4.33</v>
+        <v>4.05</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="16">
@@ -2619,31 +2619,31 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Villarreal II</t>
+          <t>FC Cartagena</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FC Andorra</t>
+          <t>Albacete Balompié</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.67</v>
+        <v>6.07</v>
       </c>
       <c r="K16" t="n">
-        <v>3.27</v>
+        <v>1.29</v>
       </c>
       <c r="L16" t="n">
-        <v>2.44</v>
+        <v>5.88</v>
       </c>
       <c r="M16" t="n">
         <v>1.44</v>
@@ -2652,91 +2652,91 @@
         <v>2.63</v>
       </c>
       <c r="O16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="R16" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="S16" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.72</v>
+        <v>1.34</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.19</v>
+        <v>2.76</v>
       </c>
       <c r="AE16" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>7.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AL16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AP16" t="n">
-        <v>4.05</v>
+        <v>4.33</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="17">
@@ -2776,13 +2776,13 @@
         <v>8.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="K17" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>9.51</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
         <v>1.44</v>
@@ -2803,10 +2803,10 @@
         <v>3.25</v>
       </c>
       <c r="S17" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="T17" t="n">
-        <v>1.79</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
         <v>2.75</v>
@@ -2915,13 +2915,13 @@
         <v>2.75</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="M18" t="n">
         <v>1.44</v>
@@ -2942,10 +2942,10 @@
         <v>3.25</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
         <v>1.85</v>
@@ -3054,13 +3054,13 @@
         <v>3.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="K19" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3.91</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>1.5</v>
@@ -3081,10 +3081,10 @@
         <v>2.8</v>
       </c>
       <c r="S19" t="n">
-        <v>2.45</v>
+        <v>2.19</v>
       </c>
       <c r="T19" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="U19" t="n">
         <v>1.91</v>
@@ -3193,13 +3193,13 @@
         <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.4</v>
@@ -3220,10 +3220,10 @@
         <v>3.4</v>
       </c>
       <c r="S20" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U20" t="n">
         <v>1.8</v>
@@ -3332,13 +3332,13 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.4</v>
@@ -3359,10 +3359,10 @@
         <v>3.5</v>
       </c>
       <c r="S21" t="n">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="T21" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
         <v>1.73</v>
